--- a/medicine/Psychotrope/Brasserie_Loterbol/Brasserie_Loterbol.xlsx
+++ b/medicine/Psychotrope/Brasserie_Loterbol/Brasserie_Loterbol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Loterbol (en néerlandais : Brouwerij Loterbol) est une brasserie située à Diest en province du Brabant flamand en Belgique. Elle produit notamment les bières Loterbol.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est aussi un café. Il est situé dans un immeuble ancien. Dans le café, une pierre mentionne la date de 1706. On y brassait probablement déjà à l'époque. Par la suite, la brasserie De Brouwketel y a été créée puis plus tard, la brasserie Duysters. Cette dernière a cessé ses activités en 1969. 
 En 1992, Marc Beirens achète les bâtiments abandonnés et les restaure de ses propres mains. Il lui a fallu beaucoup d'efforts pour être autorisé à conserver les bâtiments et à annuler l'obligation de démolition. En 1995, tout est prêt et la brasserie Loterbol est inaugurée. Il est d'abord décidé de brasser dans une section de l'ancienne brasserie datant du XVIIIe siècle. La brasserie Loterbol est alors une brasserie familiale dotée d'une petite installation d'une capacité de 470 litres de moût. Cette installation est toujours utilisée pour brasser la bière Loterbol titrant 6 % en volume d'alcool. En 2002, une nouvelle salle de brassage et une installation sont mises en service dans une partie du bâtiment datant de 1908. Cette installation a une capacité de 2800 litres de moût et est utilisée pour la fabrication de bières à 8 % en volume d'alcool.
@@ -545,7 +559,9 @@
           <t>Principales bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Loterbol 6° titrant 6 % en volume d'alcool.
 Loterbol Blond titrant 8 % en volume d'alcool.
